--- a/Code/Results/Cases/Case_3_84/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_84/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011336262197757</v>
+        <v>1.035270263719528</v>
       </c>
       <c r="D2">
-        <v>1.029557435270608</v>
+        <v>1.043076811231823</v>
       </c>
       <c r="E2">
-        <v>1.025527520362288</v>
+        <v>1.044183789309923</v>
       </c>
       <c r="F2">
-        <v>1.034713636235325</v>
+        <v>1.054714861396286</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046956419175125</v>
+        <v>1.038397002444473</v>
       </c>
       <c r="J2">
-        <v>1.033183114778184</v>
+        <v>1.040384955810975</v>
       </c>
       <c r="K2">
-        <v>1.040619791258461</v>
+        <v>1.045851695884775</v>
       </c>
       <c r="L2">
-        <v>1.036642312864284</v>
+        <v>1.04695555494004</v>
       </c>
       <c r="M2">
-        <v>1.045709645142126</v>
+        <v>1.057457309517885</v>
       </c>
       <c r="N2">
-        <v>1.014931354838237</v>
+        <v>1.017423131858447</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014850081253202</v>
+        <v>1.036026823282825</v>
       </c>
       <c r="D3">
-        <v>1.032128119194134</v>
+        <v>1.0436582246267</v>
       </c>
       <c r="E3">
-        <v>1.028399971949093</v>
+        <v>1.04485376362757</v>
       </c>
       <c r="F3">
-        <v>1.037882435629608</v>
+        <v>1.055458533832535</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047817820415307</v>
+        <v>1.038541306548671</v>
       </c>
       <c r="J3">
-        <v>1.034943944614137</v>
+        <v>1.04078596820538</v>
       </c>
       <c r="K3">
-        <v>1.042365777769668</v>
+        <v>1.046244671670251</v>
       </c>
       <c r="L3">
-        <v>1.038681921266655</v>
+        <v>1.047437084379395</v>
       </c>
       <c r="M3">
-        <v>1.048052504980568</v>
+        <v>1.058014457932326</v>
       </c>
       <c r="N3">
-        <v>1.015522151931634</v>
+        <v>1.017556977977764</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017085929548269</v>
+        <v>1.036517165471297</v>
       </c>
       <c r="D4">
-        <v>1.033767116325903</v>
+        <v>1.044035148595964</v>
       </c>
       <c r="E4">
-        <v>1.030233398492638</v>
+        <v>1.045288391285698</v>
       </c>
       <c r="F4">
-        <v>1.039904837585568</v>
+        <v>1.055940977179822</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04835828468026</v>
+        <v>1.038633874519091</v>
       </c>
       <c r="J4">
-        <v>1.036062448356437</v>
+        <v>1.041045546737753</v>
       </c>
       <c r="K4">
-        <v>1.043474392353193</v>
+        <v>1.046498961626372</v>
       </c>
       <c r="L4">
-        <v>1.039980128534894</v>
+        <v>1.047749091325752</v>
       </c>
       <c r="M4">
-        <v>1.049544368740231</v>
+        <v>1.058375537567017</v>
       </c>
       <c r="N4">
-        <v>1.015897350038522</v>
+        <v>1.017643591754525</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018017072677104</v>
+        <v>1.036723494237189</v>
       </c>
       <c r="D5">
-        <v>1.034450443069858</v>
+        <v>1.044193775550109</v>
       </c>
       <c r="E5">
-        <v>1.030998283256429</v>
+        <v>1.045471372245352</v>
       </c>
       <c r="F5">
-        <v>1.04074852183141</v>
+        <v>1.056144090355706</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048581504200555</v>
+        <v>1.038672596258484</v>
       </c>
       <c r="J5">
-        <v>1.036527778652416</v>
+        <v>1.041154695314578</v>
       </c>
       <c r="K5">
-        <v>1.04393549212581</v>
+        <v>1.046605865677588</v>
       </c>
       <c r="L5">
-        <v>1.040520851760756</v>
+        <v>1.047880359225302</v>
       </c>
       <c r="M5">
-        <v>1.050165906215387</v>
+        <v>1.05852746942932</v>
       </c>
       <c r="N5">
-        <v>1.016053421601486</v>
+        <v>1.017680005219216</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018172906282431</v>
+        <v>1.036758148763701</v>
       </c>
       <c r="D6">
-        <v>1.034564845789287</v>
+        <v>1.044220419513746</v>
       </c>
       <c r="E6">
-        <v>1.031126369925095</v>
+        <v>1.045502110943282</v>
       </c>
       <c r="F6">
-        <v>1.040889801982762</v>
+        <v>1.0561782111252</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048618751339957</v>
+        <v>1.038679086419855</v>
       </c>
       <c r="J6">
-        <v>1.036605626043836</v>
+        <v>1.041173023076654</v>
       </c>
       <c r="K6">
-        <v>1.044012624764451</v>
+        <v>1.046623815328639</v>
       </c>
       <c r="L6">
-        <v>1.040611349173569</v>
+        <v>1.047902405510827</v>
       </c>
       <c r="M6">
-        <v>1.050269938021761</v>
+        <v>1.058552987260812</v>
       </c>
       <c r="N6">
-        <v>1.016079530251119</v>
+        <v>1.017686119246295</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017098405812434</v>
+        <v>1.03651992170662</v>
       </c>
       <c r="D7">
-        <v>1.033776269221477</v>
+        <v>1.044037267519032</v>
       </c>
       <c r="E7">
-        <v>1.030243641852578</v>
+        <v>1.045290835253561</v>
       </c>
       <c r="F7">
-        <v>1.039916136379326</v>
+        <v>1.0559436900357</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048361282957818</v>
+        <v>1.038634392683472</v>
       </c>
       <c r="J7">
-        <v>1.036068685191122</v>
+        <v>1.041047005102613</v>
       </c>
       <c r="K7">
-        <v>1.043480572953148</v>
+        <v>1.046500390083176</v>
       </c>
       <c r="L7">
-        <v>1.039987373367904</v>
+        <v>1.047750844942245</v>
       </c>
       <c r="M7">
-        <v>1.049552695750068</v>
+        <v>1.058377567163849</v>
       </c>
       <c r="N7">
-        <v>1.015899441958228</v>
+        <v>1.017644078309588</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012531758901482</v>
+        <v>1.035525780206116</v>
       </c>
       <c r="D8">
-        <v>1.030431346748914</v>
+        <v>1.04327315426521</v>
       </c>
       <c r="E8">
-        <v>1.026503600452115</v>
+        <v>1.044409979270589</v>
       </c>
       <c r="F8">
-        <v>1.035790456690814</v>
+        <v>1.054965931364327</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047251073430477</v>
+        <v>1.038445937204321</v>
       </c>
       <c r="J8">
-        <v>1.03378258316922</v>
+        <v>1.040520458970934</v>
       </c>
       <c r="K8">
-        <v>1.041214299111688</v>
+        <v>1.045984501295392</v>
       </c>
       <c r="L8">
-        <v>1.037336143385875</v>
+        <v>1.047118201057879</v>
       </c>
       <c r="M8">
-        <v>1.046506502144394</v>
+        <v>1.057645481851472</v>
       </c>
       <c r="N8">
-        <v>1.015132506389204</v>
+        <v>1.017468364160367</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004183392399205</v>
+        <v>1.033780174041983</v>
       </c>
       <c r="D9">
-        <v>1.024343910389639</v>
+        <v>1.041932220363731</v>
       </c>
       <c r="E9">
-        <v>1.019712609487961</v>
+        <v>1.042866389400014</v>
       </c>
       <c r="F9">
-        <v>1.028297682639245</v>
+        <v>1.053252574684814</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045162385463843</v>
+        <v>1.038107712527219</v>
       </c>
       <c r="J9">
-        <v>1.029589284278534</v>
+        <v>1.039593419408375</v>
       </c>
       <c r="K9">
-        <v>1.037053996711873</v>
+        <v>1.045075567141974</v>
       </c>
       <c r="L9">
-        <v>1.032493759187231</v>
+        <v>1.046006729633018</v>
       </c>
       <c r="M9">
-        <v>1.04094774687208</v>
+        <v>1.056359880735863</v>
       </c>
       <c r="N9">
-        <v>1.01372515175387</v>
+        <v>1.01715880424119</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9983981964347475</v>
+        <v>1.032620725441579</v>
       </c>
       <c r="D10">
-        <v>1.020146474468229</v>
+        <v>1.041042103555988</v>
       </c>
       <c r="E10">
-        <v>1.015039901501031</v>
+        <v>1.041843232416281</v>
       </c>
       <c r="F10">
-        <v>1.023140805394208</v>
+        <v>1.052116913913111</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043676878724145</v>
+        <v>1.037878146288856</v>
       </c>
       <c r="J10">
-        <v>1.026675511213718</v>
+        <v>1.03897601538743</v>
       </c>
       <c r="K10">
-        <v>1.034161262280824</v>
+        <v>1.044469783490319</v>
       </c>
       <c r="L10">
-        <v>1.029142813690918</v>
+        <v>1.045268082899206</v>
       </c>
       <c r="M10">
-        <v>1.03710444819813</v>
+        <v>1.055505899978487</v>
       </c>
       <c r="N10">
-        <v>1.012746926867644</v>
+        <v>1.016952508307263</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9958370365432591</v>
+        <v>1.032119714435861</v>
       </c>
       <c r="D11">
-        <v>1.018293771176119</v>
+        <v>1.040657609288202</v>
       </c>
       <c r="E11">
-        <v>1.012979611509428</v>
+        <v>1.041401621215813</v>
       </c>
       <c r="F11">
-        <v>1.020866676147341</v>
+        <v>1.051626749284946</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043010607634281</v>
+        <v>1.037777782966066</v>
       </c>
       <c r="J11">
-        <v>1.025384031044013</v>
+        <v>1.038708837893024</v>
       </c>
       <c r="K11">
-        <v>1.032878747655698</v>
+        <v>1.044207531757733</v>
       </c>
       <c r="L11">
-        <v>1.027660833379239</v>
+        <v>1.044948814895993</v>
       </c>
       <c r="M11">
-        <v>1.035405521920708</v>
+        <v>1.055136872445136</v>
       </c>
       <c r="N11">
-        <v>1.012313294852654</v>
+        <v>1.016863204539522</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.994876912623995</v>
+        <v>1.031933774670173</v>
       </c>
       <c r="D12">
-        <v>1.017600114147658</v>
+        <v>1.040514933137131</v>
       </c>
       <c r="E12">
-        <v>1.012208550823881</v>
+        <v>1.041237803081656</v>
       </c>
       <c r="F12">
-        <v>1.020015527825395</v>
+        <v>1.051444920672018</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042759577084943</v>
+        <v>1.037740360175867</v>
       </c>
       <c r="J12">
-        <v>1.024899684484932</v>
+        <v>1.038609622127537</v>
       </c>
       <c r="K12">
-        <v>1.032397717164233</v>
+        <v>1.044110129782944</v>
       </c>
       <c r="L12">
-        <v>1.027105533317667</v>
+        <v>1.044830311992619</v>
       </c>
       <c r="M12">
-        <v>1.034769052353921</v>
+        <v>1.054999914048072</v>
       </c>
       <c r="N12">
-        <v>1.012150663151545</v>
+        <v>1.01683003722202</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9950832664804956</v>
+        <v>1.031973652196241</v>
       </c>
       <c r="D13">
-        <v>1.017749157163295</v>
+        <v>1.040545531190243</v>
       </c>
       <c r="E13">
-        <v>1.012374211072552</v>
+        <v>1.041272932820868</v>
       </c>
       <c r="F13">
-        <v>1.020198397403894</v>
+        <v>1.051483912612006</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042813585977998</v>
+        <v>1.037748393967113</v>
       </c>
       <c r="J13">
-        <v>1.025003790736017</v>
+        <v>1.038630903053144</v>
       </c>
       <c r="K13">
-        <v>1.03250111262074</v>
+        <v>1.044131022360889</v>
       </c>
       <c r="L13">
-        <v>1.027224868291301</v>
+        <v>1.044855727283548</v>
       </c>
       <c r="M13">
-        <v>1.034905825351557</v>
+        <v>1.055029286860794</v>
       </c>
       <c r="N13">
-        <v>1.012185619709583</v>
+        <v>1.016837151531451</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9957578539767061</v>
+        <v>1.032104341360936</v>
       </c>
       <c r="D14">
-        <v>1.018236546226819</v>
+        <v>1.040645812721375</v>
       </c>
       <c r="E14">
-        <v>1.012915994567177</v>
+        <v>1.041388075540099</v>
       </c>
       <c r="F14">
-        <v>1.020796452733612</v>
+        <v>1.051611714358172</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042989930262126</v>
+        <v>1.037774692506962</v>
       </c>
       <c r="J14">
-        <v>1.025344090257988</v>
+        <v>1.03870063615123</v>
       </c>
       <c r="K14">
-        <v>1.032839081219871</v>
+        <v>1.044199480267573</v>
       </c>
       <c r="L14">
-        <v>1.027615031572401</v>
+        <v>1.044939017615427</v>
       </c>
       <c r="M14">
-        <v>1.035353022705336</v>
+        <v>1.055125549067142</v>
       </c>
       <c r="N14">
-        <v>1.012299883822476</v>
+        <v>1.016860462832558</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9961723130198745</v>
+        <v>1.032184884271791</v>
       </c>
       <c r="D15">
-        <v>1.018536110524297</v>
+        <v>1.040707618379709</v>
       </c>
       <c r="E15">
-        <v>1.013249032901674</v>
+        <v>1.041459047448253</v>
       </c>
       <c r="F15">
-        <v>1.021164073904717</v>
+        <v>1.051690489152393</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043098109007658</v>
+        <v>1.037790876929268</v>
       </c>
       <c r="J15">
-        <v>1.025553141247587</v>
+        <v>1.03874360448299</v>
       </c>
       <c r="K15">
-        <v>1.033046694411795</v>
+        <v>1.044241660812432</v>
       </c>
       <c r="L15">
-        <v>1.027854779271269</v>
+        <v>1.044990347175685</v>
       </c>
       <c r="M15">
-        <v>1.035627832633826</v>
+        <v>1.05518487466679</v>
       </c>
       <c r="N15">
-        <v>1.012370077237633</v>
+        <v>1.016874826250241</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9985669590796697</v>
+        <v>1.032653997938204</v>
       </c>
       <c r="D16">
-        <v>1.02026867458747</v>
+        <v>1.041067640992744</v>
       </c>
       <c r="E16">
-        <v>1.01517583840411</v>
+        <v>1.041872570856966</v>
       </c>
       <c r="F16">
-        <v>1.023290843399113</v>
+        <v>1.052149478100998</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043720604275527</v>
+        <v>1.037884786921193</v>
       </c>
       <c r="J16">
-        <v>1.026760581515079</v>
+        <v>1.038993750624462</v>
       </c>
       <c r="K16">
-        <v>1.034245735161341</v>
+        <v>1.044487189593876</v>
       </c>
       <c r="L16">
-        <v>1.029240500465628</v>
+        <v>1.045289283836573</v>
       </c>
       <c r="M16">
-        <v>1.03721645200584</v>
+        <v>1.055530407122951</v>
       </c>
       <c r="N16">
-        <v>1.012775489476926</v>
+        <v>1.016958435648002</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000053779507035</v>
+        <v>1.032948539900634</v>
       </c>
       <c r="D17">
-        <v>1.021345911743401</v>
+        <v>1.041293724714732</v>
       </c>
       <c r="E17">
-        <v>1.016374419515335</v>
+        <v>1.042132345577972</v>
       </c>
       <c r="F17">
-        <v>1.024613714880904</v>
+        <v>1.052437815499435</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04410485160635</v>
+        <v>1.03794343781577</v>
       </c>
       <c r="J17">
-        <v>1.02750989120471</v>
+        <v>1.03915070521515</v>
       </c>
       <c r="K17">
-        <v>1.034989742597556</v>
+        <v>1.044641219516568</v>
       </c>
       <c r="L17">
-        <v>1.030101310513515</v>
+        <v>1.045476952938062</v>
       </c>
       <c r="M17">
-        <v>1.038203514394449</v>
+        <v>1.055747353126555</v>
       </c>
       <c r="N17">
-        <v>1.01302706691543</v>
+        <v>1.017010888330298</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000915626201869</v>
+        <v>1.033120441244576</v>
       </c>
       <c r="D18">
-        <v>1.021970864623665</v>
+        <v>1.041425685327061</v>
       </c>
       <c r="E18">
-        <v>1.017069979424398</v>
+        <v>1.04228400488276</v>
       </c>
       <c r="F18">
-        <v>1.025381368912211</v>
+        <v>1.052606150497396</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044326759939909</v>
+        <v>1.037977555247201</v>
       </c>
       <c r="J18">
-        <v>1.027944086854112</v>
+        <v>1.039242269757171</v>
       </c>
       <c r="K18">
-        <v>1.035420831073195</v>
+        <v>1.044731067924124</v>
       </c>
       <c r="L18">
-        <v>1.030600427381859</v>
+        <v>1.045586472121796</v>
       </c>
       <c r="M18">
-        <v>1.038775911477133</v>
+        <v>1.055873966466643</v>
       </c>
       <c r="N18">
-        <v>1.013172841269085</v>
+        <v>1.017041485348015</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001208590013608</v>
+        <v>1.033179072058535</v>
       </c>
       <c r="D19">
-        <v>1.02218338962055</v>
+        <v>1.041470695654098</v>
       </c>
       <c r="E19">
-        <v>1.017306551433829</v>
+        <v>1.042335739974567</v>
       </c>
       <c r="F19">
-        <v>1.025642455755365</v>
+        <v>1.052663574204869</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044402051529652</v>
+        <v>1.037989172671768</v>
       </c>
       <c r="J19">
-        <v>1.028091655190682</v>
+        <v>1.039273493499525</v>
       </c>
       <c r="K19">
-        <v>1.035567337269748</v>
+        <v>1.044761704772821</v>
       </c>
       <c r="L19">
-        <v>1.030770113040813</v>
+        <v>1.045623824606392</v>
       </c>
       <c r="M19">
-        <v>1.03897052328099</v>
+        <v>1.05591715056676</v>
       </c>
       <c r="N19">
-        <v>1.013222384124152</v>
+        <v>1.017051918507339</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9998948178681473</v>
+        <v>1.032916927976941</v>
       </c>
       <c r="D20">
-        <v>1.021230685512967</v>
+        <v>1.041269458767257</v>
       </c>
       <c r="E20">
-        <v>1.016246192094266</v>
+        <v>1.042104460011539</v>
       </c>
       <c r="F20">
-        <v>1.024472194098525</v>
+        <v>1.052406863816675</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044063855394372</v>
+        <v>1.037937154706671</v>
       </c>
       <c r="J20">
-        <v>1.027429794712297</v>
+        <v>1.039133863850626</v>
       </c>
       <c r="K20">
-        <v>1.03491021642931</v>
+        <v>1.044624692998448</v>
       </c>
       <c r="L20">
-        <v>1.030009263079126</v>
+        <v>1.045456812121466</v>
       </c>
       <c r="M20">
-        <v>1.038097958738413</v>
+        <v>1.055724069370365</v>
       </c>
       <c r="N20">
-        <v>1.013000175367889</v>
+        <v>1.017005260416896</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9955594505619759</v>
+        <v>1.032065852280038</v>
       </c>
       <c r="D21">
-        <v>1.018093175192105</v>
+        <v>1.040616278369403</v>
       </c>
       <c r="E21">
-        <v>1.012756614147868</v>
+        <v>1.041354162900734</v>
       </c>
       <c r="F21">
-        <v>1.020620520067922</v>
+        <v>1.05157407327525</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042938099921672</v>
+        <v>1.037766952194188</v>
       </c>
       <c r="J21">
-        <v>1.02524400973051</v>
+        <v>1.038680100766737</v>
       </c>
       <c r="K21">
-        <v>1.032739687418246</v>
+        <v>1.044179320832411</v>
       </c>
       <c r="L21">
-        <v>1.02750027285042</v>
+        <v>1.044914488261193</v>
       </c>
       <c r="M21">
-        <v>1.035221485232999</v>
+        <v>1.05509719906059</v>
       </c>
       <c r="N21">
-        <v>1.012266279415335</v>
+        <v>1.016853598118715</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9927825542356916</v>
+        <v>1.03153166255873</v>
       </c>
       <c r="D22">
-        <v>1.016088686205774</v>
+        <v>1.040206421335486</v>
       </c>
       <c r="E22">
-        <v>1.010529034904236</v>
+        <v>1.040883671714228</v>
       </c>
       <c r="F22">
-        <v>1.018161453249108</v>
+        <v>1.051051856600938</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042209720057135</v>
+        <v>1.037659109938643</v>
       </c>
       <c r="J22">
-        <v>1.023842829626323</v>
+        <v>1.038394952187277</v>
       </c>
       <c r="K22">
-        <v>1.031348021660814</v>
+        <v>1.043899356243805</v>
       </c>
       <c r="L22">
-        <v>1.025894755954263</v>
+        <v>1.044574014503059</v>
       </c>
       <c r="M22">
-        <v>1.033381514243182</v>
+        <v>1.054703726305567</v>
       </c>
       <c r="N22">
-        <v>1.011795788629254</v>
+        <v>1.016758265860034</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9942596070176338</v>
+        <v>1.03181475917185</v>
       </c>
       <c r="D23">
-        <v>1.0171543864432</v>
+        <v>1.040423615557918</v>
       </c>
       <c r="E23">
-        <v>1.011713173208384</v>
+        <v>1.041132968735131</v>
       </c>
       <c r="F23">
-        <v>1.019468679818136</v>
+        <v>1.051328560821249</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04259782820493</v>
+        <v>1.037716357491509</v>
       </c>
       <c r="J23">
-        <v>1.024588224982117</v>
+        <v>1.03854610012066</v>
       </c>
       <c r="K23">
-        <v>1.032088377998123</v>
+        <v>1.044047764719217</v>
       </c>
       <c r="L23">
-        <v>1.026748585102253</v>
+        <v>1.044754457488495</v>
       </c>
       <c r="M23">
-        <v>1.034359962142766</v>
+        <v>1.054912249938369</v>
       </c>
       <c r="N23">
-        <v>1.012046081290807</v>
+        <v>1.016808800862712</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9999666624229303</v>
+        <v>1.032931211735838</v>
       </c>
       <c r="D24">
-        <v>1.02128276172256</v>
+        <v>1.04128042322722</v>
       </c>
       <c r="E24">
-        <v>1.016304143508298</v>
+        <v>1.042117059875365</v>
       </c>
       <c r="F24">
-        <v>1.024536153451682</v>
+        <v>1.052420849078414</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044082386661826</v>
+        <v>1.037939994059579</v>
       </c>
       <c r="J24">
-        <v>1.027465995709195</v>
+        <v>1.039141473690368</v>
       </c>
       <c r="K24">
-        <v>1.034946159766518</v>
+        <v>1.044632160604255</v>
       </c>
       <c r="L24">
-        <v>1.030050864547011</v>
+        <v>1.04546591271991</v>
       </c>
       <c r="M24">
-        <v>1.038145665103168</v>
+        <v>1.055734590074089</v>
       </c>
       <c r="N24">
-        <v>1.013012329483937</v>
+        <v>1.017007803421813</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006379056818216</v>
+        <v>1.034230708043052</v>
       </c>
       <c r="D25">
-        <v>1.025941482990145</v>
+        <v>1.042278216033847</v>
       </c>
       <c r="E25">
-        <v>1.021493066325008</v>
+        <v>1.043264413226328</v>
       </c>
       <c r="F25">
-        <v>1.030262339142588</v>
+        <v>1.053694369203349</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045718451785085</v>
+        <v>1.03819587479693</v>
       </c>
       <c r="J25">
-        <v>1.030693630975727</v>
+        <v>1.039832977745634</v>
       </c>
       <c r="K25">
-        <v>1.038150008762985</v>
+        <v>1.045310524342418</v>
       </c>
       <c r="L25">
-        <v>1.033766646874432</v>
+        <v>1.046293667289914</v>
       </c>
       <c r="M25">
-        <v>1.042408356938426</v>
+        <v>1.056691703468877</v>
       </c>
       <c r="N25">
-        <v>1.014095852305251</v>
+        <v>1.017238821439941</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_84/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_84/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035270263719528</v>
+        <v>1.011336262197757</v>
       </c>
       <c r="D2">
-        <v>1.043076811231823</v>
+        <v>1.029557435270608</v>
       </c>
       <c r="E2">
-        <v>1.044183789309923</v>
+        <v>1.025527520362289</v>
       </c>
       <c r="F2">
-        <v>1.054714861396286</v>
+        <v>1.034713636235326</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038397002444473</v>
+        <v>1.046956419175125</v>
       </c>
       <c r="J2">
-        <v>1.040384955810975</v>
+        <v>1.033183114778184</v>
       </c>
       <c r="K2">
-        <v>1.045851695884775</v>
+        <v>1.040619791258461</v>
       </c>
       <c r="L2">
-        <v>1.04695555494004</v>
+        <v>1.036642312864285</v>
       </c>
       <c r="M2">
-        <v>1.057457309517885</v>
+        <v>1.045709645142127</v>
       </c>
       <c r="N2">
-        <v>1.017423131858447</v>
+        <v>1.014931354838237</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036026823282825</v>
+        <v>1.014850081253202</v>
       </c>
       <c r="D3">
-        <v>1.0436582246267</v>
+        <v>1.032128119194135</v>
       </c>
       <c r="E3">
-        <v>1.04485376362757</v>
+        <v>1.028399971949093</v>
       </c>
       <c r="F3">
-        <v>1.055458533832535</v>
+        <v>1.037882435629609</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038541306548671</v>
+        <v>1.047817820415308</v>
       </c>
       <c r="J3">
-        <v>1.04078596820538</v>
+        <v>1.034943944614138</v>
       </c>
       <c r="K3">
-        <v>1.046244671670251</v>
+        <v>1.042365777769669</v>
       </c>
       <c r="L3">
-        <v>1.047437084379395</v>
+        <v>1.038681921266655</v>
       </c>
       <c r="M3">
-        <v>1.058014457932326</v>
+        <v>1.048052504980568</v>
       </c>
       <c r="N3">
-        <v>1.017556977977764</v>
+        <v>1.015522151931634</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036517165471297</v>
+        <v>1.017085929548269</v>
       </c>
       <c r="D4">
-        <v>1.044035148595964</v>
+        <v>1.033767116325903</v>
       </c>
       <c r="E4">
-        <v>1.045288391285698</v>
+        <v>1.030233398492638</v>
       </c>
       <c r="F4">
-        <v>1.055940977179822</v>
+        <v>1.039904837585568</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038633874519091</v>
+        <v>1.04835828468026</v>
       </c>
       <c r="J4">
-        <v>1.041045546737753</v>
+        <v>1.036062448356437</v>
       </c>
       <c r="K4">
-        <v>1.046498961626372</v>
+        <v>1.043474392353193</v>
       </c>
       <c r="L4">
-        <v>1.047749091325752</v>
+        <v>1.039980128534894</v>
       </c>
       <c r="M4">
-        <v>1.058375537567017</v>
+        <v>1.049544368740231</v>
       </c>
       <c r="N4">
-        <v>1.017643591754525</v>
+        <v>1.015897350038522</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036723494237189</v>
+        <v>1.018017072677104</v>
       </c>
       <c r="D5">
-        <v>1.044193775550109</v>
+        <v>1.034450443069858</v>
       </c>
       <c r="E5">
-        <v>1.045471372245352</v>
+        <v>1.030998283256429</v>
       </c>
       <c r="F5">
-        <v>1.056144090355706</v>
+        <v>1.04074852183141</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038672596258484</v>
+        <v>1.048581504200555</v>
       </c>
       <c r="J5">
-        <v>1.041154695314578</v>
+        <v>1.036527778652416</v>
       </c>
       <c r="K5">
-        <v>1.046605865677588</v>
+        <v>1.04393549212581</v>
       </c>
       <c r="L5">
-        <v>1.047880359225302</v>
+        <v>1.040520851760756</v>
       </c>
       <c r="M5">
-        <v>1.05852746942932</v>
+        <v>1.050165906215387</v>
       </c>
       <c r="N5">
-        <v>1.017680005219216</v>
+        <v>1.016053421601486</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036758148763701</v>
+        <v>1.018172906282431</v>
       </c>
       <c r="D6">
-        <v>1.044220419513746</v>
+        <v>1.034564845789288</v>
       </c>
       <c r="E6">
-        <v>1.045502110943282</v>
+        <v>1.031126369925095</v>
       </c>
       <c r="F6">
-        <v>1.0561782111252</v>
+        <v>1.040889801982762</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038679086419855</v>
+        <v>1.048618751339957</v>
       </c>
       <c r="J6">
-        <v>1.041173023076654</v>
+        <v>1.036605626043836</v>
       </c>
       <c r="K6">
-        <v>1.046623815328639</v>
+        <v>1.044012624764451</v>
       </c>
       <c r="L6">
-        <v>1.047902405510827</v>
+        <v>1.040611349173569</v>
       </c>
       <c r="M6">
-        <v>1.058552987260812</v>
+        <v>1.050269938021762</v>
       </c>
       <c r="N6">
-        <v>1.017686119246295</v>
+        <v>1.016079530251119</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03651992170662</v>
+        <v>1.017098405812434</v>
       </c>
       <c r="D7">
-        <v>1.044037267519032</v>
+        <v>1.033776269221477</v>
       </c>
       <c r="E7">
-        <v>1.045290835253561</v>
+        <v>1.030243641852578</v>
       </c>
       <c r="F7">
-        <v>1.0559436900357</v>
+        <v>1.039916136379326</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038634392683472</v>
+        <v>1.048361282957818</v>
       </c>
       <c r="J7">
-        <v>1.041047005102613</v>
+        <v>1.036068685191122</v>
       </c>
       <c r="K7">
-        <v>1.046500390083176</v>
+        <v>1.043480572953148</v>
       </c>
       <c r="L7">
-        <v>1.047750844942245</v>
+        <v>1.039987373367904</v>
       </c>
       <c r="M7">
-        <v>1.058377567163849</v>
+        <v>1.049552695750068</v>
       </c>
       <c r="N7">
-        <v>1.017644078309588</v>
+        <v>1.015899441958227</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035525780206116</v>
+        <v>1.012531758901482</v>
       </c>
       <c r="D8">
-        <v>1.04327315426521</v>
+        <v>1.030431346748915</v>
       </c>
       <c r="E8">
-        <v>1.044409979270589</v>
+        <v>1.026503600452116</v>
       </c>
       <c r="F8">
-        <v>1.054965931364327</v>
+        <v>1.035790456690815</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038445937204321</v>
+        <v>1.047251073430478</v>
       </c>
       <c r="J8">
-        <v>1.040520458970934</v>
+        <v>1.033782583169221</v>
       </c>
       <c r="K8">
-        <v>1.045984501295392</v>
+        <v>1.041214299111689</v>
       </c>
       <c r="L8">
-        <v>1.047118201057879</v>
+        <v>1.037336143385877</v>
       </c>
       <c r="M8">
-        <v>1.057645481851472</v>
+        <v>1.046506502144395</v>
       </c>
       <c r="N8">
-        <v>1.017468364160367</v>
+        <v>1.015132506389205</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033780174041983</v>
+        <v>1.004183392399205</v>
       </c>
       <c r="D9">
-        <v>1.041932220363731</v>
+        <v>1.024343910389639</v>
       </c>
       <c r="E9">
-        <v>1.042866389400014</v>
+        <v>1.019712609487962</v>
       </c>
       <c r="F9">
-        <v>1.053252574684814</v>
+        <v>1.028297682639245</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038107712527219</v>
+        <v>1.045162385463843</v>
       </c>
       <c r="J9">
-        <v>1.039593419408375</v>
+        <v>1.029589284278534</v>
       </c>
       <c r="K9">
-        <v>1.045075567141974</v>
+        <v>1.037053996711873</v>
       </c>
       <c r="L9">
-        <v>1.046006729633018</v>
+        <v>1.032493759187231</v>
       </c>
       <c r="M9">
-        <v>1.056359880735863</v>
+        <v>1.04094774687208</v>
       </c>
       <c r="N9">
-        <v>1.01715880424119</v>
+        <v>1.01372515175387</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032620725441579</v>
+        <v>0.9983981964347479</v>
       </c>
       <c r="D10">
-        <v>1.041042103555988</v>
+        <v>1.02014647446823</v>
       </c>
       <c r="E10">
-        <v>1.041843232416281</v>
+        <v>1.015039901501032</v>
       </c>
       <c r="F10">
-        <v>1.052116913913111</v>
+        <v>1.023140805394209</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037878146288856</v>
+        <v>1.043676878724146</v>
       </c>
       <c r="J10">
-        <v>1.03897601538743</v>
+        <v>1.026675511213719</v>
       </c>
       <c r="K10">
-        <v>1.044469783490319</v>
+        <v>1.034161262280824</v>
       </c>
       <c r="L10">
-        <v>1.045268082899206</v>
+        <v>1.029142813690918</v>
       </c>
       <c r="M10">
-        <v>1.055505899978487</v>
+        <v>1.037104448198131</v>
       </c>
       <c r="N10">
-        <v>1.016952508307263</v>
+        <v>1.012746926867644</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032119714435861</v>
+        <v>0.9958370365432589</v>
       </c>
       <c r="D11">
-        <v>1.040657609288202</v>
+        <v>1.018293771176119</v>
       </c>
       <c r="E11">
-        <v>1.041401621215813</v>
+        <v>1.012979611509428</v>
       </c>
       <c r="F11">
-        <v>1.051626749284946</v>
+        <v>1.020866676147341</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037777782966066</v>
+        <v>1.043010607634281</v>
       </c>
       <c r="J11">
-        <v>1.038708837893024</v>
+        <v>1.025384031044013</v>
       </c>
       <c r="K11">
-        <v>1.044207531757733</v>
+        <v>1.032878747655698</v>
       </c>
       <c r="L11">
-        <v>1.044948814895993</v>
+        <v>1.027660833379239</v>
       </c>
       <c r="M11">
-        <v>1.055136872445136</v>
+        <v>1.035405521920708</v>
       </c>
       <c r="N11">
-        <v>1.016863204539522</v>
+        <v>1.012313294852655</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031933774670173</v>
+        <v>0.9948769126239949</v>
       </c>
       <c r="D12">
-        <v>1.040514933137131</v>
+        <v>1.017600114147658</v>
       </c>
       <c r="E12">
-        <v>1.041237803081656</v>
+        <v>1.012208550823881</v>
       </c>
       <c r="F12">
-        <v>1.051444920672018</v>
+        <v>1.020015527825395</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037740360175867</v>
+        <v>1.042759577084943</v>
       </c>
       <c r="J12">
-        <v>1.038609622127537</v>
+        <v>1.024899684484932</v>
       </c>
       <c r="K12">
-        <v>1.044110129782944</v>
+        <v>1.032397717164233</v>
       </c>
       <c r="L12">
-        <v>1.044830311992619</v>
+        <v>1.027105533317667</v>
       </c>
       <c r="M12">
-        <v>1.054999914048072</v>
+        <v>1.034769052353921</v>
       </c>
       <c r="N12">
-        <v>1.01683003722202</v>
+        <v>1.012150663151545</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031973652196241</v>
+        <v>0.9950832664804959</v>
       </c>
       <c r="D13">
-        <v>1.040545531190243</v>
+        <v>1.017749157163296</v>
       </c>
       <c r="E13">
-        <v>1.041272932820868</v>
+        <v>1.012374211072552</v>
       </c>
       <c r="F13">
-        <v>1.051483912612006</v>
+        <v>1.020198397403896</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037748393967113</v>
+        <v>1.042813585977998</v>
       </c>
       <c r="J13">
-        <v>1.038630903053144</v>
+        <v>1.025003790736017</v>
       </c>
       <c r="K13">
-        <v>1.044131022360889</v>
+        <v>1.032501112620741</v>
       </c>
       <c r="L13">
-        <v>1.044855727283548</v>
+        <v>1.027224868291301</v>
       </c>
       <c r="M13">
-        <v>1.055029286860794</v>
+        <v>1.034905825351558</v>
       </c>
       <c r="N13">
-        <v>1.016837151531451</v>
+        <v>1.012185619709584</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032104341360936</v>
+        <v>0.9957578539767061</v>
       </c>
       <c r="D14">
-        <v>1.040645812721375</v>
+        <v>1.018236546226819</v>
       </c>
       <c r="E14">
-        <v>1.041388075540099</v>
+        <v>1.012915994567177</v>
       </c>
       <c r="F14">
-        <v>1.051611714358172</v>
+        <v>1.020796452733612</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037774692506962</v>
+        <v>1.042989930262127</v>
       </c>
       <c r="J14">
-        <v>1.03870063615123</v>
+        <v>1.025344090257988</v>
       </c>
       <c r="K14">
-        <v>1.044199480267573</v>
+        <v>1.032839081219871</v>
       </c>
       <c r="L14">
-        <v>1.044939017615427</v>
+        <v>1.027615031572401</v>
       </c>
       <c r="M14">
-        <v>1.055125549067142</v>
+        <v>1.035353022705337</v>
       </c>
       <c r="N14">
-        <v>1.016860462832558</v>
+        <v>1.012299883822476</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032184884271791</v>
+        <v>0.9961723130198742</v>
       </c>
       <c r="D15">
-        <v>1.040707618379709</v>
+        <v>1.018536110524296</v>
       </c>
       <c r="E15">
-        <v>1.041459047448253</v>
+        <v>1.013249032901674</v>
       </c>
       <c r="F15">
-        <v>1.051690489152393</v>
+        <v>1.021164073904717</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037790876929268</v>
+        <v>1.043098109007658</v>
       </c>
       <c r="J15">
-        <v>1.03874360448299</v>
+        <v>1.025553141247586</v>
       </c>
       <c r="K15">
-        <v>1.044241660812432</v>
+        <v>1.033046694411795</v>
       </c>
       <c r="L15">
-        <v>1.044990347175685</v>
+        <v>1.027854779271269</v>
       </c>
       <c r="M15">
-        <v>1.05518487466679</v>
+        <v>1.035627832633826</v>
       </c>
       <c r="N15">
-        <v>1.016874826250241</v>
+        <v>1.012370077237633</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032653997938204</v>
+        <v>0.9985669590796705</v>
       </c>
       <c r="D16">
-        <v>1.041067640992744</v>
+        <v>1.020268674587471</v>
       </c>
       <c r="E16">
-        <v>1.041872570856966</v>
+        <v>1.015175838404112</v>
       </c>
       <c r="F16">
-        <v>1.052149478100998</v>
+        <v>1.023290843399115</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037884786921193</v>
+        <v>1.043720604275528</v>
       </c>
       <c r="J16">
-        <v>1.038993750624462</v>
+        <v>1.02676058151508</v>
       </c>
       <c r="K16">
-        <v>1.044487189593876</v>
+        <v>1.034245735161342</v>
       </c>
       <c r="L16">
-        <v>1.045289283836573</v>
+        <v>1.02924050046563</v>
       </c>
       <c r="M16">
-        <v>1.055530407122951</v>
+        <v>1.037216452005842</v>
       </c>
       <c r="N16">
-        <v>1.016958435648002</v>
+        <v>1.012775489476926</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032948539900634</v>
+        <v>1.000053779507035</v>
       </c>
       <c r="D17">
-        <v>1.041293724714732</v>
+        <v>1.021345911743401</v>
       </c>
       <c r="E17">
-        <v>1.042132345577972</v>
+        <v>1.016374419515335</v>
       </c>
       <c r="F17">
-        <v>1.052437815499435</v>
+        <v>1.024613714880904</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03794343781577</v>
+        <v>1.04410485160635</v>
       </c>
       <c r="J17">
-        <v>1.03915070521515</v>
+        <v>1.02750989120471</v>
       </c>
       <c r="K17">
-        <v>1.044641219516568</v>
+        <v>1.034989742597556</v>
       </c>
       <c r="L17">
-        <v>1.045476952938062</v>
+        <v>1.030101310513515</v>
       </c>
       <c r="M17">
-        <v>1.055747353126555</v>
+        <v>1.038203514394449</v>
       </c>
       <c r="N17">
-        <v>1.017010888330298</v>
+        <v>1.01302706691543</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033120441244576</v>
+        <v>1.000915626201869</v>
       </c>
       <c r="D18">
-        <v>1.041425685327061</v>
+        <v>1.021970864623666</v>
       </c>
       <c r="E18">
-        <v>1.04228400488276</v>
+        <v>1.017069979424399</v>
       </c>
       <c r="F18">
-        <v>1.052606150497396</v>
+        <v>1.025381368912212</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037977555247201</v>
+        <v>1.04432675993991</v>
       </c>
       <c r="J18">
-        <v>1.039242269757171</v>
+        <v>1.027944086854113</v>
       </c>
       <c r="K18">
-        <v>1.044731067924124</v>
+        <v>1.035420831073196</v>
       </c>
       <c r="L18">
-        <v>1.045586472121796</v>
+        <v>1.03060042738186</v>
       </c>
       <c r="M18">
-        <v>1.055873966466643</v>
+        <v>1.038775911477134</v>
       </c>
       <c r="N18">
-        <v>1.017041485348015</v>
+        <v>1.013172841269085</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033179072058535</v>
+        <v>1.001208590013608</v>
       </c>
       <c r="D19">
-        <v>1.041470695654098</v>
+        <v>1.02218338962055</v>
       </c>
       <c r="E19">
-        <v>1.042335739974567</v>
+        <v>1.01730655143383</v>
       </c>
       <c r="F19">
-        <v>1.052663574204869</v>
+        <v>1.025642455755366</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037989172671768</v>
+        <v>1.044402051529652</v>
       </c>
       <c r="J19">
-        <v>1.039273493499525</v>
+        <v>1.028091655190683</v>
       </c>
       <c r="K19">
-        <v>1.044761704772821</v>
+        <v>1.035567337269749</v>
       </c>
       <c r="L19">
-        <v>1.045623824606392</v>
+        <v>1.030770113040814</v>
       </c>
       <c r="M19">
-        <v>1.05591715056676</v>
+        <v>1.038970523280991</v>
       </c>
       <c r="N19">
-        <v>1.017051918507339</v>
+        <v>1.013222384124152</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032916927976941</v>
+        <v>0.9998948178681467</v>
       </c>
       <c r="D20">
-        <v>1.041269458767257</v>
+        <v>1.021230685512966</v>
       </c>
       <c r="E20">
-        <v>1.042104460011539</v>
+        <v>1.016246192094266</v>
       </c>
       <c r="F20">
-        <v>1.052406863816675</v>
+        <v>1.024472194098524</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037937154706671</v>
+        <v>1.044063855394371</v>
       </c>
       <c r="J20">
-        <v>1.039133863850626</v>
+        <v>1.027429794712297</v>
       </c>
       <c r="K20">
-        <v>1.044624692998448</v>
+        <v>1.03491021642931</v>
       </c>
       <c r="L20">
-        <v>1.045456812121466</v>
+        <v>1.030009263079125</v>
       </c>
       <c r="M20">
-        <v>1.055724069370365</v>
+        <v>1.038097958738412</v>
       </c>
       <c r="N20">
-        <v>1.017005260416896</v>
+        <v>1.013000175367889</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032065852280038</v>
+        <v>0.995559450561976</v>
       </c>
       <c r="D21">
-        <v>1.040616278369403</v>
+        <v>1.018093175192105</v>
       </c>
       <c r="E21">
-        <v>1.041354162900734</v>
+        <v>1.012756614147868</v>
       </c>
       <c r="F21">
-        <v>1.05157407327525</v>
+        <v>1.020620520067922</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037766952194188</v>
+        <v>1.042938099921672</v>
       </c>
       <c r="J21">
-        <v>1.038680100766737</v>
+        <v>1.02524400973051</v>
       </c>
       <c r="K21">
-        <v>1.044179320832411</v>
+        <v>1.032739687418246</v>
       </c>
       <c r="L21">
-        <v>1.044914488261193</v>
+        <v>1.027500272850419</v>
       </c>
       <c r="M21">
-        <v>1.05509719906059</v>
+        <v>1.035221485232999</v>
       </c>
       <c r="N21">
-        <v>1.016853598118715</v>
+        <v>1.012266279415335</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03153166255873</v>
+        <v>0.9927825542356913</v>
       </c>
       <c r="D22">
-        <v>1.040206421335486</v>
+        <v>1.016088686205774</v>
       </c>
       <c r="E22">
-        <v>1.040883671714228</v>
+        <v>1.010529034904236</v>
       </c>
       <c r="F22">
-        <v>1.051051856600938</v>
+        <v>1.018161453249108</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037659109938643</v>
+        <v>1.042209720057135</v>
       </c>
       <c r="J22">
-        <v>1.038394952187277</v>
+        <v>1.023842829626323</v>
       </c>
       <c r="K22">
-        <v>1.043899356243805</v>
+        <v>1.031348021660814</v>
       </c>
       <c r="L22">
-        <v>1.044574014503059</v>
+        <v>1.025894755954263</v>
       </c>
       <c r="M22">
-        <v>1.054703726305567</v>
+        <v>1.033381514243183</v>
       </c>
       <c r="N22">
-        <v>1.016758265860034</v>
+        <v>1.011795788629254</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03181475917185</v>
+        <v>0.9942596070176339</v>
       </c>
       <c r="D23">
-        <v>1.040423615557918</v>
+        <v>1.0171543864432</v>
       </c>
       <c r="E23">
-        <v>1.041132968735131</v>
+        <v>1.011713173208384</v>
       </c>
       <c r="F23">
-        <v>1.051328560821249</v>
+        <v>1.019468679818137</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037716357491509</v>
+        <v>1.04259782820493</v>
       </c>
       <c r="J23">
-        <v>1.03854610012066</v>
+        <v>1.024588224982117</v>
       </c>
       <c r="K23">
-        <v>1.044047764719217</v>
+        <v>1.032088377998123</v>
       </c>
       <c r="L23">
-        <v>1.044754457488495</v>
+        <v>1.026748585102253</v>
       </c>
       <c r="M23">
-        <v>1.054912249938369</v>
+        <v>1.034359962142766</v>
       </c>
       <c r="N23">
-        <v>1.016808800862712</v>
+        <v>1.012046081290807</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032931211735838</v>
+        <v>0.9999666624229298</v>
       </c>
       <c r="D24">
-        <v>1.04128042322722</v>
+        <v>1.021282761722559</v>
       </c>
       <c r="E24">
-        <v>1.042117059875365</v>
+        <v>1.016304143508297</v>
       </c>
       <c r="F24">
-        <v>1.052420849078414</v>
+        <v>1.024536153451681</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037939994059579</v>
+        <v>1.044082386661826</v>
       </c>
       <c r="J24">
-        <v>1.039141473690368</v>
+        <v>1.027465995709194</v>
       </c>
       <c r="K24">
-        <v>1.044632160604255</v>
+        <v>1.034946159766518</v>
       </c>
       <c r="L24">
-        <v>1.04546591271991</v>
+        <v>1.03005086454701</v>
       </c>
       <c r="M24">
-        <v>1.055734590074089</v>
+        <v>1.038145665103167</v>
       </c>
       <c r="N24">
-        <v>1.017007803421813</v>
+        <v>1.013012329483937</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034230708043052</v>
+        <v>1.006379056818216</v>
       </c>
       <c r="D25">
-        <v>1.042278216033847</v>
+        <v>1.025941482990144</v>
       </c>
       <c r="E25">
-        <v>1.043264413226328</v>
+        <v>1.021493066325007</v>
       </c>
       <c r="F25">
-        <v>1.053694369203349</v>
+        <v>1.030262339142588</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03819587479693</v>
+        <v>1.045718451785085</v>
       </c>
       <c r="J25">
-        <v>1.039832977745634</v>
+        <v>1.030693630975726</v>
       </c>
       <c r="K25">
-        <v>1.045310524342418</v>
+        <v>1.038150008762984</v>
       </c>
       <c r="L25">
-        <v>1.046293667289914</v>
+        <v>1.033766646874432</v>
       </c>
       <c r="M25">
-        <v>1.056691703468877</v>
+        <v>1.042408356938426</v>
       </c>
       <c r="N25">
-        <v>1.017238821439941</v>
+        <v>1.01409585230525</v>
       </c>
     </row>
   </sheetData>
